--- a/pesticides/turkey/tomato.xlsx
+++ b/pesticides/turkey/tomato.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\belgelerim\belge\proje\erasmus\erasmus2021\copefa\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mvp/Career/Development/Paid-Projects/Pesticide/pesticides/turkey/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B5E66D-DBE1-BC4C-9443-1E7C2627D0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="-32380" yWindow="13420" windowWidth="32380" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="late blight" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="346">
   <si>
     <t>60 g/l Gamma-cyhalothrin</t>
   </si>
@@ -1076,7 +1077,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1236,109 +1237,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,28 +1598,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="6" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="6" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1651,1026 +1630,1018 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="13">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="13">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F49" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:F32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F32">
     <sortCondition ref="D1"/>
   </sortState>
   <mergeCells count="5">
@@ -2686,76 +2657,76 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" style="12" customWidth="1"/>
-    <col min="5" max="6" width="27.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="27.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="39"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="15" t="s">
         <v>254</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2767,7 +2738,7 @@
       <c r="F4" s="4">
         <v>4</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2783,29 +2754,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D4" sqref="D4:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2816,37 +2787,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>99</v>
       </c>
@@ -2856,17 +2827,17 @@
       <c r="C4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>99</v>
       </c>
@@ -2876,17 +2847,17 @@
       <c r="C5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>99</v>
       </c>
@@ -2896,17 +2867,17 @@
       <c r="C6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>99</v>
       </c>
@@ -2916,17 +2887,17 @@
       <c r="C7" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>99</v>
       </c>
@@ -2936,17 +2907,17 @@
       <c r="C8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>99</v>
       </c>
@@ -2956,17 +2927,17 @@
       <c r="C9" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>99</v>
       </c>
@@ -2976,15 +2947,17 @@
       <c r="C10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>99</v>
       </c>
@@ -2994,13 +2967,13 @@
       <c r="C11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="13">
         <v>7</v>
       </c>
     </row>
@@ -3018,28 +2991,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
-    <col min="5" max="6" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="6" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3050,731 +3023,733 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="13">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="13">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="13">
         <v>3</v>
       </c>
     </row>
@@ -3791,28 +3766,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="58" customWidth="1"/>
-    <col min="5" max="6" width="27.42578125" customWidth="1"/>
+    <col min="5" max="6" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3823,37 +3798,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>164</v>
       </c>
@@ -3863,17 +3838,17 @@
       <c r="C4" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>164</v>
       </c>
@@ -3883,17 +3858,17 @@
       <c r="C5" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>164</v>
       </c>
@@ -3903,17 +3878,17 @@
       <c r="C6" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>164</v>
       </c>
@@ -3923,17 +3898,17 @@
       <c r="C7" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>164</v>
       </c>
@@ -3943,17 +3918,17 @@
       <c r="C8" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>164</v>
       </c>
@@ -3963,15 +3938,17 @@
       <c r="C9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>164</v>
       </c>
@@ -3981,17 +3958,17 @@
       <c r="C10" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>164</v>
       </c>
@@ -4001,17 +3978,17 @@
       <c r="C11" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>164</v>
       </c>
@@ -4021,17 +3998,17 @@
       <c r="C12" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>164</v>
       </c>
@@ -4041,13 +4018,15 @@
       <c r="C13" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4062,598 +4041,610 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" style="12" customWidth="1"/>
-    <col min="5" max="6" width="27.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="27.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="39"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D64">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D64">
     <sortCondition ref="B1"/>
   </sortState>
   <mergeCells count="5">
@@ -4669,28 +4660,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D4" sqref="D4:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" customWidth="1"/>
-    <col min="5" max="6" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" customWidth="1"/>
+    <col min="5" max="6" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4701,93 +4692,93 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>14</v>
       </c>
     </row>
@@ -4804,676 +4795,686 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" style="12" customWidth="1"/>
-    <col min="5" max="6" width="27.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="27.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F26" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>23</v>
+      <c r="F34" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5490,697 +5491,697 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" style="12" customWidth="1"/>
-    <col min="5" max="6" width="27.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="27.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="16">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="F16" s="40"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="F26" s="40"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F29" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="F30" s="40">
+      <c r="F30" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="16">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E34" s="40" t="s">
+      <c r="E34" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F34" s="40"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="F35" s="40"/>
+      <c r="F35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6196,285 +6197,285 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="62.7109375" style="12" customWidth="1"/>
-    <col min="5" max="6" width="27.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="62.6640625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="27.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="39"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="13" t="s">
         <v>23</v>
       </c>
     </row>
